--- a/output/1Y_P77_KFSDIV.xlsx
+++ b/output/1Y_P77_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>11.8145</v>
       </c>
       <c r="C2" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D2" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.2352</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E3" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="F3" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="H3" s="1">
-        <v>9509.6703</v>
+        <v>9471.6258</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9509.6703</v>
+        <v>9471.6258</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.049</v>
+        <v>-0.0528</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.8241</v>
       </c>
       <c r="C4" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D4" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E4" s="1">
-        <v>1736.4694</v>
+        <v>1733.0039</v>
       </c>
       <c r="F4" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="H4" s="1">
-        <v>18795.7187</v>
+        <v>18720.6016</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18795.7187</v>
+        <v>18720.6016</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.5176</v>
+        <v>11.5407</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0366</v>
+        <v>-0.0386</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.2543</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E5" s="1">
-        <v>2660.3338</v>
+        <v>2655.0198</v>
       </c>
       <c r="F5" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="H5" s="1">
-        <v>29940.1943</v>
+        <v>29820.6516</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29940.1943</v>
+        <v>29820.6516</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2768</v>
+        <v>11.2994</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0397</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>10.5675</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E6" s="1">
-        <v>3548.883</v>
+        <v>3541.7883</v>
       </c>
       <c r="F6" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="H6" s="1">
-        <v>37502.8215</v>
+        <v>37353.1166</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37502.8215</v>
+        <v>37353.1166</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2712</v>
+        <v>11.2937</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>718.2901000000001</v>
+        <v>716.8554</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9281.7099</v>
+        <v>-9283.1446</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.061</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E7" s="1">
-        <v>4495.1717</v>
+        <v>4486.1913</v>
       </c>
       <c r="F7" s="1">
-        <v>1013.6062</v>
+        <v>1011.5558</v>
       </c>
       <c r="H7" s="1">
-        <v>44803.3762</v>
+        <v>44624.5939</v>
       </c>
       <c r="I7" s="1">
-        <v>718.2901000000001</v>
+        <v>716.8554</v>
       </c>
       <c r="J7" s="1">
-        <v>45521.6663</v>
+        <v>45341.4493</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.123</v>
+        <v>11.1453</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10102.6129</v>
+        <v>-10102.4079</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0417</v>
+        <v>-0.0425</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.0064</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E8" s="1">
-        <v>5508.7779</v>
+        <v>5497.7472</v>
       </c>
       <c r="F8" s="1">
-        <v>1009.6151</v>
+        <v>1007.5707</v>
       </c>
       <c r="H8" s="1">
-        <v>55123.0349</v>
+        <v>54902.7022</v>
       </c>
       <c r="I8" s="1">
-        <v>615.6772</v>
+        <v>614.4474</v>
       </c>
       <c r="J8" s="1">
-        <v>55738.7122</v>
+        <v>55517.1496</v>
       </c>
       <c r="K8" s="1">
-        <v>60102.6129</v>
+        <v>60102.4079</v>
       </c>
       <c r="L8" s="1">
-        <v>10.9103</v>
+        <v>10.9322</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10102.6129</v>
+        <v>-10102.4079</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0039</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>10.0129</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E9" s="1">
-        <v>6518.393</v>
+        <v>6505.3179</v>
       </c>
       <c r="F9" s="1">
-        <v>1008.9597</v>
+        <v>1006.918</v>
       </c>
       <c r="H9" s="1">
-        <v>65268.0174</v>
+        <v>65006.9911</v>
       </c>
       <c r="I9" s="1">
-        <v>513.0644</v>
+        <v>512.0395</v>
       </c>
       <c r="J9" s="1">
-        <v>65781.0817</v>
+        <v>65519.0306</v>
       </c>
       <c r="K9" s="1">
-        <v>70205.2257</v>
+        <v>70204.8158</v>
       </c>
       <c r="L9" s="1">
-        <v>10.7703</v>
+        <v>10.7919</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1487.37</v>
+        <v>1484.3917</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8615.2428</v>
+        <v>-8618.0162</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.4583</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E10" s="1">
-        <v>7527.3527</v>
+        <v>7512.2358</v>
       </c>
       <c r="F10" s="1">
-        <v>1001.5447</v>
+        <v>999.4471</v>
       </c>
       <c r="H10" s="1">
-        <v>78723.3132</v>
+        <v>78408.2104</v>
       </c>
       <c r="I10" s="1">
-        <v>1897.8215</v>
+        <v>1894.0234</v>
       </c>
       <c r="J10" s="1">
-        <v>80621.1347</v>
+        <v>80302.2338</v>
       </c>
       <c r="K10" s="1">
-        <v>80307.8386</v>
+        <v>80307.2237</v>
       </c>
       <c r="L10" s="1">
-        <v>10.6688</v>
+        <v>10.6902</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10474.4554</v>
+        <v>-10473.5058</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0639</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.3341</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E11" s="1">
-        <v>8528.897499999999</v>
+        <v>8511.6829</v>
       </c>
       <c r="F11" s="1">
-        <v>1013.5818</v>
+        <v>1011.4638</v>
       </c>
       <c r="H11" s="1">
-        <v>88138.4795</v>
+        <v>87784.3907</v>
       </c>
       <c r="I11" s="1">
-        <v>1423.3661</v>
+        <v>1420.5175</v>
       </c>
       <c r="J11" s="1">
-        <v>89561.8456</v>
+        <v>89204.9083</v>
       </c>
       <c r="K11" s="1">
-        <v>90782.29399999999</v>
+        <v>90780.72960000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6441</v>
+        <v>10.6654</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10474.4554</v>
+        <v>-10473.5058</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0117</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9542.479300000001</v>
+        <v>9523.1468</v>
       </c>
       <c r="F12" s="1">
-        <v>1059.6742</v>
+        <v>1057.4599</v>
       </c>
       <c r="H12" s="1">
-        <v>94323.5904</v>
+        <v>93943.93829999999</v>
       </c>
       <c r="I12" s="1">
-        <v>948.9108</v>
+        <v>947.0117</v>
       </c>
       <c r="J12" s="1">
-        <v>95272.5012</v>
+        <v>94890.95</v>
       </c>
       <c r="K12" s="1">
-        <v>101256.7494</v>
+        <v>101254.2354</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6112</v>
+        <v>10.6324</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3838.0039</v>
+        <v>3830.2573</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6636.4515</v>
+        <v>-6643.2485</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0431</v>
+        <v>-0.0435</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D13" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10602.1534</v>
+        <v>10580.6067</v>
       </c>
       <c r="F13" s="1">
-        <v>1435.9126</v>
+        <v>1432.1665</v>
       </c>
       <c r="H13" s="1">
-        <v>105676.9643</v>
+        <v>105251.643</v>
       </c>
       <c r="I13" s="1">
-        <v>4312.4592</v>
+        <v>4303.7632</v>
       </c>
       <c r="J13" s="1">
-        <v>109989.4236</v>
+        <v>109555.4062</v>
       </c>
       <c r="K13" s="1">
-        <v>111731.2048</v>
+        <v>111727.7412</v>
       </c>
       <c r="L13" s="1">
-        <v>10.5385</v>
+        <v>10.5597</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-14312.4592</v>
+        <v>-14303.7632</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0448</v>
+        <v>0.0445</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.4908</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E14" s="1">
-        <v>12038.0661</v>
+        <v>12012.7732</v>
       </c>
       <c r="F14" s="1">
-        <v>-12038.0661</v>
+        <v>-12012.7732</v>
       </c>
       <c r="H14" s="1">
-        <v>126288.9436</v>
+        <v>125771.3329</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126288.9436</v>
+        <v>125771.3329</v>
       </c>
       <c r="K14" s="1">
-        <v>126043.664</v>
+        <v>126031.5044</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4704</v>
+        <v>10.4915</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126288.9436</v>
+        <v>125771.3329</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0525</v>
+        <v>0.052</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>11.8145</v>
       </c>
       <c r="C2" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D2" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.2352</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E3" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="F3" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9509.6703</v>
+        <v>9471.6258</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9509.6703</v>
+        <v>9471.6258</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.049</v>
+        <v>-0.0528</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.8241</v>
       </c>
       <c r="C4" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D4" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E4" s="1">
-        <v>1736.4694</v>
+        <v>1733.0039</v>
       </c>
       <c r="F4" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18795.7187</v>
+        <v>18720.6016</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18795.7187</v>
+        <v>18720.6016</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.5176</v>
+        <v>11.5407</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0366</v>
+        <v>-0.0386</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.2543</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E5" s="1">
-        <v>2660.3338</v>
+        <v>2655.0198</v>
       </c>
       <c r="F5" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29940.1943</v>
+        <v>29820.6516</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29940.1943</v>
+        <v>29820.6516</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2768</v>
+        <v>11.2994</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0397</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>10.5675</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E6" s="1">
-        <v>3548.883</v>
+        <v>3541.7883</v>
       </c>
       <c r="F6" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>37502.8215</v>
+        <v>37353.1166</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37502.8215</v>
+        <v>37353.1166</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2712</v>
+        <v>11.2937</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>718.2901000000001</v>
+        <v>716.8554</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9281.7099</v>
+        <v>-9283.1446</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.061</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E7" s="1">
-        <v>4495.1717</v>
+        <v>4486.1913</v>
       </c>
       <c r="F7" s="1">
-        <v>1075.3778</v>
+        <v>1073.0805</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>44803.3762</v>
+        <v>44624.5939</v>
       </c>
       <c r="I7" s="1">
-        <v>718.2901000000001</v>
+        <v>716.8554</v>
       </c>
       <c r="J7" s="1">
-        <v>45521.6663</v>
+        <v>45341.4493</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.123</v>
+        <v>11.1453</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10718.2901</v>
+        <v>-10716.8554</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0417</v>
+        <v>-0.0425</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.0064</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E8" s="1">
-        <v>5570.5494</v>
+        <v>5559.2719</v>
       </c>
       <c r="F8" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>55741.146</v>
+        <v>55517.1127</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55741.146</v>
+        <v>55517.1127</v>
       </c>
       <c r="K8" s="1">
-        <v>60718.2901</v>
+        <v>60716.8554</v>
       </c>
       <c r="L8" s="1">
-        <v>10.8999</v>
+        <v>10.9217</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.004</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>10.0129</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E9" s="1">
-        <v>6569.9099</v>
+        <v>6556.6289</v>
       </c>
       <c r="F9" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>65783.8504</v>
+        <v>65519.7368</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>65783.8504</v>
+        <v>65519.7368</v>
       </c>
       <c r="K9" s="1">
-        <v>70718.2901</v>
+        <v>70716.8554</v>
       </c>
       <c r="L9" s="1">
-        <v>10.764</v>
+        <v>10.7856</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1504.0484</v>
+        <v>1501.0034</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8495.9516</v>
+        <v>-8498.9966</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.4583</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E10" s="1">
-        <v>7568.6215</v>
+        <v>7553.3397</v>
       </c>
       <c r="F10" s="1">
-        <v>1036.9836</v>
+        <v>1069.4974</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>79154.91439999999</v>
+        <v>78837.2282</v>
       </c>
       <c r="I10" s="1">
-        <v>1504.0484</v>
+        <v>1501.0034</v>
       </c>
       <c r="J10" s="1">
-        <v>80658.96279999999</v>
+        <v>80338.2316</v>
       </c>
       <c r="K10" s="1">
-        <v>80718.2901</v>
+        <v>80716.8554</v>
       </c>
       <c r="L10" s="1">
-        <v>10.6649</v>
+        <v>10.6862</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10845.0856</v>
+        <v>-11207.5837</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0643</v>
+        <v>0.0638</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.3341</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E11" s="1">
-        <v>8605.605100000001</v>
+        <v>8622.837100000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1031.436</v>
+        <v>994.0723</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>88931.1838</v>
+        <v>88930.76820000001</v>
       </c>
       <c r="I11" s="1">
-        <v>658.9628</v>
+        <v>293.4197</v>
       </c>
       <c r="J11" s="1">
-        <v>89590.14659999999</v>
+        <v>89224.1879</v>
       </c>
       <c r="K11" s="1">
-        <v>91563.3757</v>
+        <v>91924.4391</v>
       </c>
       <c r="L11" s="1">
-        <v>10.64</v>
+        <v>10.6606</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10658.9628</v>
+        <v>-10293.4197</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0118</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9637.0411</v>
+        <v>9616.9094</v>
       </c>
       <c r="F12" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>95258.2966</v>
+        <v>94868.88770000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95258.2966</v>
+        <v>94868.88770000001</v>
       </c>
       <c r="K12" s="1">
-        <v>102222.3385</v>
+        <v>102217.8588</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6072</v>
+        <v>10.629</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3872.5223</v>
+        <v>3880.2767</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6127.4777</v>
+        <v>-6119.7233</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0435</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D13" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10648.7158</v>
+        <v>10626.5617</v>
       </c>
       <c r="F13" s="1">
-        <v>1390.4113</v>
+        <v>1389.7649</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>106141.0752</v>
+        <v>105708.7848</v>
       </c>
       <c r="I13" s="1">
-        <v>3872.5223</v>
+        <v>3880.2767</v>
       </c>
       <c r="J13" s="1">
-        <v>110013.5975</v>
+        <v>109589.0615</v>
       </c>
       <c r="K13" s="1">
-        <v>112222.3385</v>
+        <v>112217.8588</v>
       </c>
       <c r="L13" s="1">
-        <v>10.5386</v>
+        <v>10.5601</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13858.9248</v>
+        <v>-13880.2767</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0452</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.4908</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E14" s="1">
-        <v>12039.1272</v>
+        <v>12016.3265</v>
       </c>
       <c r="F14" s="1">
-        <v>-12039.1272</v>
+        <v>-12016.3265</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126300.0752</v>
+        <v>125808.5356</v>
       </c>
       <c r="I14" s="1">
-        <v>13.5975</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>126313.6727</v>
+        <v>125808.5356</v>
       </c>
       <c r="K14" s="1">
-        <v>126081.2633</v>
+        <v>126098.1355</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4726</v>
+        <v>10.4939</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126300.0752</v>
+        <v>125808.5356</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0525</v>
+        <v>0.052</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>11.8145</v>
       </c>
       <c r="C2" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D2" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>11.2352</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E3" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="F3" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9509.6703</v>
+        <v>9471.6258</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9509.6703</v>
+        <v>9471.6258</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.049</v>
+        <v>-0.0528</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.8241</v>
       </c>
       <c r="C4" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D4" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E4" s="1">
-        <v>1736.4694</v>
+        <v>1733.0039</v>
       </c>
       <c r="F4" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18795.7187</v>
+        <v>18720.6016</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18795.7187</v>
+        <v>18720.6016</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.5176</v>
+        <v>11.5407</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0366</v>
+        <v>-0.0386</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>11.2543</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E5" s="1">
-        <v>2660.3338</v>
+        <v>2655.0198</v>
       </c>
       <c r="F5" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29940.1943</v>
+        <v>29820.6516</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29940.1943</v>
+        <v>29820.6516</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2768</v>
+        <v>11.2994</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0397</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>10.5675</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E6" s="1">
-        <v>3548.883</v>
+        <v>3541.7883</v>
       </c>
       <c r="F6" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>37502.8215</v>
+        <v>37353.1166</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37502.8215</v>
+        <v>37353.1166</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2712</v>
+        <v>11.2937</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>718.2901000000001</v>
+        <v>716.8554</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9281.7099</v>
+        <v>-9283.1446</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.061</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E7" s="1">
-        <v>4495.1717</v>
+        <v>4486.1913</v>
       </c>
       <c r="F7" s="1">
-        <v>1075.3778</v>
+        <v>1073.0805</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>44803.3762</v>
+        <v>44624.5939</v>
       </c>
       <c r="I7" s="1">
-        <v>718.2901000000001</v>
+        <v>716.8554</v>
       </c>
       <c r="J7" s="1">
-        <v>45521.6663</v>
+        <v>45341.4493</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.123</v>
+        <v>11.1453</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10718.2901</v>
+        <v>-10716.8554</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0417</v>
+        <v>-0.0425</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.0064</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E8" s="1">
-        <v>5570.5494</v>
+        <v>5559.2719</v>
       </c>
       <c r="F8" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>55741.146</v>
+        <v>55517.1127</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55741.146</v>
+        <v>55517.1127</v>
       </c>
       <c r="K8" s="1">
-        <v>60718.2901</v>
+        <v>60716.8554</v>
       </c>
       <c r="L8" s="1">
-        <v>10.8999</v>
+        <v>10.9217</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.004</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>10.0129</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E9" s="1">
-        <v>6569.9099</v>
+        <v>6556.6289</v>
       </c>
       <c r="F9" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>65783.8504</v>
+        <v>65519.7368</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>65783.8504</v>
+        <v>65519.7368</v>
       </c>
       <c r="K9" s="1">
-        <v>70718.2901</v>
+        <v>70716.8554</v>
       </c>
       <c r="L9" s="1">
-        <v>10.764</v>
+        <v>10.7856</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1504.0484</v>
+        <v>1501.0034</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8495.9516</v>
+        <v>-8498.9966</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.4583</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E10" s="1">
-        <v>7568.6215</v>
+        <v>7553.3397</v>
       </c>
       <c r="F10" s="1">
-        <v>1099.9922</v>
+        <v>1097.4973</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79154.91439999999</v>
+        <v>78837.2282</v>
       </c>
       <c r="I10" s="1">
-        <v>1504.0484</v>
+        <v>1501.0034</v>
       </c>
       <c r="J10" s="1">
-        <v>80658.96279999999</v>
+        <v>80338.2316</v>
       </c>
       <c r="K10" s="1">
-        <v>80718.2901</v>
+        <v>80716.8554</v>
       </c>
       <c r="L10" s="1">
-        <v>10.6649</v>
+        <v>10.6862</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11504.0484</v>
+        <v>-11501.0034</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0643</v>
+        <v>0.0638</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.3341</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E11" s="1">
-        <v>8668.6137</v>
+        <v>8650.837</v>
       </c>
       <c r="F11" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89582.321</v>
+        <v>89219.54270000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>89582.321</v>
+        <v>89219.54270000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92222.3385</v>
+        <v>92217.8588</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6386</v>
+        <v>10.66</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0119</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9636.2839</v>
+        <v>9616.572700000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>95250.81140000001</v>
+        <v>94865.5667</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95250.81140000001</v>
+        <v>94865.5667</v>
       </c>
       <c r="K12" s="1">
-        <v>102222.3385</v>
+        <v>102217.8588</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6081</v>
+        <v>10.6293</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3900.8762</v>
+        <v>3892.8767</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6099.1238</v>
+        <v>-6107.1233</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0435</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D13" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10647.9586</v>
+        <v>10626.225</v>
       </c>
       <c r="F13" s="1">
-        <v>1394.6201</v>
+        <v>1391.0264</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>106133.5271</v>
+        <v>105705.4359</v>
       </c>
       <c r="I13" s="1">
-        <v>3900.8762</v>
+        <v>3892.8767</v>
       </c>
       <c r="J13" s="1">
-        <v>110034.4033</v>
+        <v>109598.3126</v>
       </c>
       <c r="K13" s="1">
-        <v>112222.3385</v>
+        <v>112217.8588</v>
       </c>
       <c r="L13" s="1">
-        <v>10.5393</v>
+        <v>10.5605</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13900.8762</v>
+        <v>-13892.8767</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0454</v>
+        <v>0.0451</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.4908</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E14" s="1">
-        <v>12042.5787</v>
+        <v>12017.2515</v>
       </c>
       <c r="F14" s="1">
-        <v>-12042.5787</v>
+        <v>-12017.2515</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126336.2847</v>
+        <v>125818.2193</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126336.2847</v>
+        <v>125818.2193</v>
       </c>
       <c r="K14" s="1">
-        <v>126123.2146</v>
+        <v>126110.7354</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4731</v>
+        <v>10.4941</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126336.2847</v>
+        <v>125818.2193</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0525</v>
+        <v>0.052</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>11.8145</v>
       </c>
       <c r="C2" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D2" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>11.2352</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E3" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="F3" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9509.6703</v>
+        <v>9471.6258</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9509.6703</v>
+        <v>9471.6258</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.049</v>
+        <v>-0.0528</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.8241</v>
       </c>
       <c r="C4" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D4" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E4" s="1">
-        <v>1736.4694</v>
+        <v>1733.0039</v>
       </c>
       <c r="F4" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18795.7187</v>
+        <v>18720.6016</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18795.7187</v>
+        <v>18720.6016</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.5176</v>
+        <v>11.5407</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0366</v>
+        <v>-0.0386</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>11.2543</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E5" s="1">
-        <v>2660.3338</v>
+        <v>2655.0198</v>
       </c>
       <c r="F5" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29940.1943</v>
+        <v>29820.6516</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29940.1943</v>
+        <v>29820.6516</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2768</v>
+        <v>11.2994</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0397</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>10.5675</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E6" s="1">
-        <v>3548.883</v>
+        <v>3541.7883</v>
       </c>
       <c r="F6" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>37502.8215</v>
+        <v>37353.1166</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37502.8215</v>
+        <v>37353.1166</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2712</v>
+        <v>11.2937</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>718.2901000000001</v>
+        <v>716.8554</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9281.7099</v>
+        <v>-9283.1446</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.061</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E7" s="1">
-        <v>4495.1717</v>
+        <v>4486.1913</v>
       </c>
       <c r="F7" s="1">
-        <v>1075.3778</v>
+        <v>1073.0805</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>44803.3762</v>
+        <v>44624.5939</v>
       </c>
       <c r="I7" s="1">
-        <v>718.2901000000001</v>
+        <v>716.8554</v>
       </c>
       <c r="J7" s="1">
-        <v>45521.6663</v>
+        <v>45341.4493</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.123</v>
+        <v>11.1453</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10718.2901</v>
+        <v>-10716.8554</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0417</v>
+        <v>-0.0425</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.0064</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E8" s="1">
-        <v>5570.5494</v>
+        <v>5559.2719</v>
       </c>
       <c r="F8" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>55741.146</v>
+        <v>55517.1127</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55741.146</v>
+        <v>55517.1127</v>
       </c>
       <c r="K8" s="1">
-        <v>60718.2901</v>
+        <v>60716.8554</v>
       </c>
       <c r="L8" s="1">
-        <v>10.8999</v>
+        <v>10.9217</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.004</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>10.0129</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E9" s="1">
-        <v>6569.9099</v>
+        <v>6556.6289</v>
       </c>
       <c r="F9" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>65783.8504</v>
+        <v>65519.7368</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>65783.8504</v>
+        <v>65519.7368</v>
       </c>
       <c r="K9" s="1">
-        <v>70718.2901</v>
+        <v>70716.8554</v>
       </c>
       <c r="L9" s="1">
-        <v>10.764</v>
+        <v>10.7856</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1504.0484</v>
+        <v>1501.0034</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8495.9516</v>
+        <v>-8498.9966</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.4583</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E10" s="1">
-        <v>7568.6215</v>
+        <v>7553.3397</v>
       </c>
       <c r="F10" s="1">
-        <v>1099.9922</v>
+        <v>1097.4973</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>79154.91439999999</v>
+        <v>78837.2282</v>
       </c>
       <c r="I10" s="1">
-        <v>1504.0484</v>
+        <v>1501.0034</v>
       </c>
       <c r="J10" s="1">
-        <v>80658.96279999999</v>
+        <v>80338.2316</v>
       </c>
       <c r="K10" s="1">
-        <v>80718.2901</v>
+        <v>80716.8554</v>
       </c>
       <c r="L10" s="1">
-        <v>10.6649</v>
+        <v>10.6862</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11504.0484</v>
+        <v>-11501.0034</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0643</v>
+        <v>0.0638</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.3341</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E11" s="1">
-        <v>8668.6137</v>
+        <v>8650.837</v>
       </c>
       <c r="F11" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>89582.321</v>
+        <v>89219.54270000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>89582.321</v>
+        <v>89219.54270000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92222.3385</v>
+        <v>92217.8588</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6386</v>
+        <v>10.66</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0119</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9636.2839</v>
+        <v>9616.572700000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>95250.81140000001</v>
+        <v>94865.5667</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95250.81140000001</v>
+        <v>94865.5667</v>
       </c>
       <c r="K12" s="1">
-        <v>102222.3385</v>
+        <v>102217.8588</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6081</v>
+        <v>10.6293</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3900.8762</v>
+        <v>3892.8767</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6099.1238</v>
+        <v>-6107.1233</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0435</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D13" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10647.9586</v>
+        <v>10626.225</v>
       </c>
       <c r="F13" s="1">
-        <v>1394.6201</v>
+        <v>1391.0264</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>106133.5271</v>
+        <v>105705.4359</v>
       </c>
       <c r="I13" s="1">
-        <v>3900.8762</v>
+        <v>3892.8767</v>
       </c>
       <c r="J13" s="1">
-        <v>110034.4033</v>
+        <v>109598.3126</v>
       </c>
       <c r="K13" s="1">
-        <v>112222.3385</v>
+        <v>112217.8588</v>
       </c>
       <c r="L13" s="1">
-        <v>10.5393</v>
+        <v>10.5605</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13900.8762</v>
+        <v>-13892.8767</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0454</v>
+        <v>0.0451</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.4908</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E14" s="1">
-        <v>12042.5787</v>
+        <v>12017.2515</v>
       </c>
       <c r="F14" s="1">
-        <v>-12042.5787</v>
+        <v>-12017.2515</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126336.2847</v>
+        <v>125818.2193</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126336.2847</v>
+        <v>125818.2193</v>
       </c>
       <c r="K14" s="1">
-        <v>126123.2146</v>
+        <v>126110.7354</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4731</v>
+        <v>10.4941</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126336.2847</v>
+        <v>125818.2193</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0525</v>
+        <v>0.052</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>11.8145</v>
       </c>
       <c r="C2" s="1">
-        <v>11.8145</v>
+        <v>11.7909</v>
       </c>
       <c r="D2" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.2352</v>
       </c>
       <c r="C3" s="1">
-        <v>11.2352</v>
+        <v>11.2127</v>
       </c>
       <c r="D3" s="1">
-        <v>11.2353</v>
+        <v>11.2577</v>
       </c>
       <c r="E3" s="1">
-        <v>846.4175</v>
+        <v>844.723</v>
       </c>
       <c r="F3" s="1">
-        <v>890.0519</v>
+        <v>888.2809</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9509.6703</v>
+        <v>9471.6258</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9509.6703</v>
+        <v>9471.6258</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.8145</v>
+        <v>11.8382</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.049</v>
+        <v>-0.0528</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.8241</v>
       </c>
       <c r="C4" s="1">
-        <v>10.8241</v>
+        <v>10.8024</v>
       </c>
       <c r="D4" s="1">
-        <v>10.8241</v>
+        <v>10.8458</v>
       </c>
       <c r="E4" s="1">
-        <v>1736.4694</v>
+        <v>1733.0039</v>
       </c>
       <c r="F4" s="1">
-        <v>923.8643</v>
+        <v>922.0159</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18795.7187</v>
+        <v>18720.6016</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18795.7187</v>
+        <v>18720.6016</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.5176</v>
+        <v>11.5407</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0366</v>
+        <v>-0.0386</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.2543</v>
       </c>
       <c r="C5" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D5" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E5" s="1">
-        <v>2660.3338</v>
+        <v>2655.0198</v>
       </c>
       <c r="F5" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29940.1943</v>
+        <v>29820.6516</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29940.1943</v>
+        <v>29820.6516</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2768</v>
+        <v>11.2994</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0397</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>10.5675</v>
       </c>
       <c r="C6" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D6" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E6" s="1">
-        <v>3548.883</v>
+        <v>3541.7883</v>
       </c>
       <c r="F6" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>37502.8215</v>
+        <v>37353.1166</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37502.8215</v>
+        <v>37353.1166</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.2712</v>
+        <v>11.2937</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>718.2901000000001</v>
+        <v>716.8554</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9281.7099</v>
+        <v>-9283.1446</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.061</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E7" s="1">
-        <v>4495.1717</v>
+        <v>4486.1913</v>
       </c>
       <c r="F7" s="1">
-        <v>1075.3778</v>
+        <v>1073.0805</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>44803.3762</v>
+        <v>44624.5939</v>
       </c>
       <c r="I7" s="1">
-        <v>718.2901000000001</v>
+        <v>716.8554</v>
       </c>
       <c r="J7" s="1">
-        <v>45521.6663</v>
+        <v>45341.4493</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.123</v>
+        <v>11.1453</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10718.2901</v>
+        <v>-10716.8554</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0417</v>
+        <v>-0.0425</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.0064</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E8" s="1">
-        <v>5570.5494</v>
+        <v>5559.2719</v>
       </c>
       <c r="F8" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>55741.146</v>
+        <v>55517.1127</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>55741.146</v>
+        <v>55517.1127</v>
       </c>
       <c r="K8" s="1">
-        <v>60718.2901</v>
+        <v>60716.8554</v>
       </c>
       <c r="L8" s="1">
-        <v>10.8999</v>
+        <v>10.9217</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.004</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>10.0129</v>
       </c>
       <c r="C9" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E9" s="1">
-        <v>6569.9099</v>
+        <v>6556.6289</v>
       </c>
       <c r="F9" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>65783.8504</v>
+        <v>65519.7368</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>65783.8504</v>
+        <v>65519.7368</v>
       </c>
       <c r="K9" s="1">
-        <v>70718.2901</v>
+        <v>70716.8554</v>
       </c>
       <c r="L9" s="1">
-        <v>10.764</v>
+        <v>10.7856</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1504.0484</v>
+        <v>1501.0034</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8495.9516</v>
+        <v>-8498.9966</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.4583</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E10" s="1">
-        <v>7568.6215</v>
+        <v>7553.3397</v>
       </c>
       <c r="F10" s="1">
-        <v>1099.9922</v>
+        <v>1097.4973</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79154.91439999999</v>
+        <v>78837.2282</v>
       </c>
       <c r="I10" s="1">
-        <v>1504.0484</v>
+        <v>1501.0034</v>
       </c>
       <c r="J10" s="1">
-        <v>80658.96279999999</v>
+        <v>80338.2316</v>
       </c>
       <c r="K10" s="1">
-        <v>80718.2901</v>
+        <v>80716.8554</v>
       </c>
       <c r="L10" s="1">
-        <v>10.6649</v>
+        <v>10.6862</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11504.0484</v>
+        <v>-11501.0034</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0643</v>
+        <v>0.0638</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.3341</v>
       </c>
       <c r="C11" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D11" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E11" s="1">
-        <v>8668.6137</v>
+        <v>8650.837</v>
       </c>
       <c r="F11" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>89582.321</v>
+        <v>89219.54270000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>89582.321</v>
+        <v>89219.54270000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92222.3385</v>
+        <v>92217.8588</v>
       </c>
       <c r="L11" s="1">
-        <v>10.6386</v>
+        <v>10.66</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0119</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>9636.2839</v>
+        <v>9616.572700000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>95250.81140000001</v>
+        <v>94865.5667</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>95250.81140000001</v>
+        <v>94865.5667</v>
       </c>
       <c r="K12" s="1">
-        <v>102222.3385</v>
+        <v>102217.8588</v>
       </c>
       <c r="L12" s="1">
-        <v>10.6081</v>
+        <v>10.6293</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3900.8762</v>
+        <v>3892.8767</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6099.1238</v>
+        <v>-6107.1233</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0435</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D13" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>10647.9586</v>
+        <v>10626.225</v>
       </c>
       <c r="F13" s="1">
-        <v>1394.6201</v>
+        <v>1391.0264</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>106133.5271</v>
+        <v>105705.4359</v>
       </c>
       <c r="I13" s="1">
-        <v>3900.8762</v>
+        <v>3892.8767</v>
       </c>
       <c r="J13" s="1">
-        <v>110034.4033</v>
+        <v>109598.3126</v>
       </c>
       <c r="K13" s="1">
-        <v>112222.3385</v>
+        <v>112217.8588</v>
       </c>
       <c r="L13" s="1">
-        <v>10.5393</v>
+        <v>10.5605</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13900.8762</v>
+        <v>-13892.8767</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0454</v>
+        <v>0.0451</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.4908</v>
       </c>
       <c r="C14" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D14" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E14" s="1">
-        <v>12042.5787</v>
+        <v>12017.2515</v>
       </c>
       <c r="F14" s="1">
-        <v>-12042.5787</v>
+        <v>-12017.2515</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126336.2847</v>
+        <v>125818.2193</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126336.2847</v>
+        <v>125818.2193</v>
       </c>
       <c r="K14" s="1">
-        <v>126123.2146</v>
+        <v>126110.7354</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4731</v>
+        <v>10.4941</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126336.2847</v>
+        <v>125818.2193</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0525</v>
+        <v>0.052</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.4704</v>
+        <v>10.4915</v>
       </c>
       <c r="D3" s="1">
-        <v>10.4726</v>
+        <v>10.4939</v>
       </c>
       <c r="E3" s="1">
-        <v>10.4731</v>
+        <v>10.4941</v>
       </c>
       <c r="F3" s="1">
-        <v>10.4731</v>
+        <v>10.4941</v>
       </c>
       <c r="G3" s="1">
-        <v>10.4731</v>
+        <v>10.4941</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1091</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0377</v>
+        <v>-0.0502</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0373</v>
+        <v>-0.0497</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0371</v>
+        <v>-0.0497</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0371</v>
+        <v>-0.0497</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0371</v>
+        <v>-0.0497</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1347</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1467</v>
+        <v>0.1481</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1471</v>
+        <v>0.1486</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1472</v>
+        <v>0.1486</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1472</v>
+        <v>0.1486</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1472</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.9612000000000001</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3952</v>
+        <v>-0.4762</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.3916</v>
+        <v>-0.4716</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.39</v>
+        <v>-0.4709</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.39</v>
+        <v>-0.4709</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.39</v>
+        <v>-0.4709</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.09950000000000001</v>
+        <v>0.0912</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0994</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0997</v>
+        <v>0.0914</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0997</v>
+        <v>0.0914</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0997</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6043.664</v>
+        <v>6031.5044</v>
       </c>
       <c r="D8" s="1">
-        <v>6094.8608</v>
+        <v>6098.1355</v>
       </c>
       <c r="E8" s="1">
-        <v>6123.2146</v>
+        <v>6110.7354</v>
       </c>
       <c r="F8" s="1">
-        <v>6123.2146</v>
+        <v>6110.7354</v>
       </c>
       <c r="G8" s="1">
-        <v>6123.2146</v>
+        <v>6110.7354</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P77_KFSDIV.xlsx
+++ b/output/1Y_P77_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8145</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2352</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8241</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2543</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.5675</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.967000000000001</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0064</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0129</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4583</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3341</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.884600000000001</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.967499999999999</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4908</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8145</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2352</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8241</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2543</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.5675</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.967000000000001</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0064</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0129</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4583</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3341</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.884600000000001</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.967499999999999</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4908</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8145</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2352</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8241</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2543</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.5675</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.967000000000001</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0064</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0129</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4583</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3341</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.884600000000001</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.967499999999999</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4908</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8145</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2352</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8241</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2543</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.5675</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.967000000000001</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0064</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0129</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4583</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3341</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.884600000000001</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.967499999999999</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4908</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8145</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.2352</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8241</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.2543</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.5675</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.967000000000001</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0064</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0129</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4583</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.3341</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>9.884600000000001</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>9.967499999999999</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.4908</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7332.6868</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9983</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0036</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9979</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9979</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
